--- a/medicine/Soins infirmiers et profession infirmière/1821_en_santé_et_médecine/1821_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1821_en_santé_et_médecine/1821_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1821_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1821_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1821 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1821_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1821_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le choléra arrive en Corée, venant de Chine par voie terrestre[1].
-La France envoie trente mille soldats pour empêcher une épidémie mortelle de fièvre qui sévit en Espagne de franchir les Pyrénées, et c'est à cette occasion que le mot « cordon sanitaire » est employé pour la première fois[2].
-Épidémie de suette miliaire dans les départements français de l'Oise et de Seine-et-Oise[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le choléra arrive en Corée, venant de Chine par voie terrestre.
+La France envoie trente mille soldats pour empêcher une épidémie mortelle de fièvre qui sévit en Espagne de franchir les Pyrénées, et c'est à cette occasion que le mot « cordon sanitaire » est employé pour la première fois.
+Épidémie de suette miliaire dans les départements français de l'Oise et de Seine-et-Oise.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1821_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1821_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +557,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>François Broussais, Examen des doctrines médicales et des systèmes de nosologie[4].
-Sous le titre de A Treatise on the Diseases of the Chest[5], John Forbes (en) traduit en anglais le Traité de l'auscultation médiate de Laennec[6].
-Jean Itard, Traité des maladies de l'oreille et de l'audition[7].
-Mériadec Laennec, L'auscultation médiate peut-elle servir aux progrès de la médecine pratique ?[8].
-Louis Claude Noisette, Le Jardin fruitier[9].
-Barry Edward O'Meara, Documents historiques sur la maladie et la mort de Napoléon Bonaparte[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>François Broussais, Examen des doctrines médicales et des systèmes de nosologie.
+Sous le titre de A Treatise on the Diseases of the Chest, John Forbes (en) traduit en anglais le Traité de l'auscultation médiate de Laennec.
+Jean Itard, Traité des maladies de l'oreille et de l'audition.
+Mériadec Laennec, L'auscultation médiate peut-elle servir aux progrès de la médecine pratique ?.
+Louis Claude Noisette, Le Jardin fruitier.
+Barry Edward O'Meara, Documents historiques sur la maladie et la mort de Napoléon Bonaparte.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1821_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1821_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>3 février : Elizabeth Blackwell (morte en 1910), médecin, auteur et féministe anglo-américaine, première femme diplômée en médecine par une université aux États-Unis et première femme membre de l'ordre des médecins de Grande-Bretagne.
-21 mars : Ferdinand Lefebvre (nl) (mort en 1902), pathologiste belge[11].
+21 mars : Ferdinand Lefebvre (nl) (mort en 1902), pathologiste belge.
 19 juillet : Djordje Natosevic (mort en 1887), médecin et pédagogue serbe.
 13 octobre : Rudolf Virchow (mort en 1902), pathologiste et homme politique allemand.</t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1821_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1821_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,13 +629,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>13 février : Pierre-François Tingry (né en 1743), pharmacien, chimiste et minéralogiste français[12].
-24 mars : Johann Abraham Albers (de) (né en 1772), médecin allemand[13].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>13 février : Pierre-François Tingry (né en 1743), pharmacien, chimiste et minéralogiste français.
+24 mars : Johann Abraham Albers (de) (né en 1772), médecin allemand.
 2 avril : James Gregory, médecin écossais.
 24 avril : Johann Peter Frank (né en 1745), hygiéniste allemand.
-18 septembre : Jean-Nicolas Corvisart (né en 1755), médecin français[14].
+18 septembre : Jean-Nicolas Corvisart (né en 1755), médecin français.
 21 octobre : Marie-Louise Lachapelle (née en 1769), sage-femme française.</t>
         </is>
       </c>
